--- a/Outputs/Table 3.xlsx
+++ b/Outputs/Table 3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Income.Group</t>
   </si>
@@ -65,82 +65,91 @@
     <t>HIC</t>
   </si>
   <si>
-    <t>175504737.746991</t>
-  </si>
-  <si>
-    <t>1081460739.29405</t>
-  </si>
-  <si>
-    <t>1097887198.59678</t>
-  </si>
-  <si>
-    <t>552278147.526872</t>
-  </si>
-  <si>
-    <t>1869123996.00244</t>
-  </si>
-  <si>
-    <t>14283220140.573</t>
-  </si>
-  <si>
-    <t>3313168220.37463</t>
-  </si>
-  <si>
-    <t>44245436.457829</t>
-  </si>
-  <si>
-    <t>56841653.9074535</t>
-  </si>
-  <si>
-    <t>47295780.9818249</t>
-  </si>
-  <si>
-    <t>248331676.040095</t>
-  </si>
-  <si>
-    <t>606505862.664461</t>
-  </si>
-  <si>
-    <t>1833902808.25839</t>
-  </si>
-  <si>
-    <t>55672950.2983842</t>
-  </si>
-  <si>
-    <t>224069172.246615</t>
-  </si>
-  <si>
-    <t>74689724.0822051</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57835613.7303296</t>
-  </si>
-  <si>
-    <t>173506841.190989</t>
-  </si>
-  <si>
-    <t>1185632873.08056</t>
-  </si>
-  <si>
-    <t>97317117.9733759</t>
-  </si>
-  <si>
-    <t>150591685.187639</t>
-  </si>
-  <si>
-    <t>50197228.3958797</t>
-  </si>
-  <si>
-    <t>185255660.129908</t>
-  </si>
-  <si>
-    <t>555766980.389724</t>
-  </si>
-  <si>
-    <t>2318739888.97494</t>
+    <t>239444515.69091</t>
+  </si>
+  <si>
+    <t>842858309.203853</t>
+  </si>
+  <si>
+    <t>862720612.74646</t>
+  </si>
+  <si>
+    <t>381120333.04424</t>
+  </si>
+  <si>
+    <t>3030112563.76208</t>
+  </si>
+  <si>
+    <t>8493262093.1449</t>
+  </si>
+  <si>
+    <t>2572809509.77197</t>
+  </si>
+  <si>
+    <t>4603881.51274061</t>
+  </si>
+  <si>
+    <t>12473637.161624</t>
+  </si>
+  <si>
+    <t>35469313.3194275</t>
+  </si>
+  <si>
+    <t>127560924.961792</t>
+  </si>
+  <si>
+    <t>474264696.468838</t>
+  </si>
+  <si>
+    <t>873298068.154679</t>
+  </si>
+  <si>
+    <t>51476246.9660259</t>
+  </si>
+  <si>
+    <t>230204420.603405</t>
+  </si>
+  <si>
+    <t>76734806.8678017</t>
+  </si>
+  <si>
+    <t>201750290.935549</t>
+  </si>
+  <si>
+    <t>4428930.44435616</t>
+  </si>
+  <si>
+    <t>59419213.3417597</t>
+  </si>
+  <si>
+    <t>178257640.025279</t>
+  </si>
+  <si>
+    <t>624897308.96247</t>
+  </si>
+  <si>
+    <t>95680647.6055384</t>
+  </si>
+  <si>
+    <t>136942987.144815</t>
+  </si>
+  <si>
+    <t>45647662.3816052</t>
+  </si>
+  <si>
+    <t>105579073.003094</t>
+  </si>
+  <si>
+    <t>40959585.8731113</t>
+  </si>
+  <si>
+    <t>175870299.231353</t>
+  </si>
+  <si>
+    <t>527610897.694059</t>
+  </si>
+  <si>
+    <t>1627090825.0588</t>
   </si>
 </sst>
 </file>
@@ -244,13 +253,13 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -276,13 +285,13 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -308,13 +317,13 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -340,13 +349,13 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 3.xlsx
+++ b/Outputs/Table 3.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tresc\Desktop\Model-Code-and-Inputs\Outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F9413-0524-4521-9AA9-F1845013D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="12864" yWindow="2532" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Income.Group</t>
   </si>
@@ -26,7 +46,7 @@
     <t>Cost.Saved.for.Healthcare</t>
   </si>
   <si>
-    <t>Value.of.DALYs.Averted</t>
+    <t>Value.of.QALYs.Saved</t>
   </si>
   <si>
     <t>Increased.Profit...Smallholder.Pig.Farms</t>
@@ -41,6 +61,9 @@
     <t>Increased.Profit...Industrial.Chicken.Farms</t>
   </si>
   <si>
+    <t>QALYs.Saved</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,22 +82,22 @@
     <t>HIC</t>
   </si>
   <si>
-    <t>312872915.195996</t>
-  </si>
-  <si>
-    <t>939432859.266716</t>
-  </si>
-  <si>
-    <t>503470095.151926</t>
+    <t>312546245.523083</t>
+  </si>
+  <si>
+    <t>925666610.420097</t>
+  </si>
+  <si>
+    <t>537887827.355799</t>
   </si>
   <si>
     <t>3030569678.76221</t>
   </si>
   <si>
-    <t>8448950653.21655</t>
-  </si>
-  <si>
-    <t>2581663227.9978</t>
+    <t>8350612729.32849</t>
+  </si>
+  <si>
+    <t>2650363762.50757</t>
   </si>
   <si>
     <t>2368835.84591889</t>
@@ -86,19 +109,13 @@
     <t>18294474.3562698</t>
   </si>
   <si>
-    <t>175198607.041452</t>
-  </si>
-  <si>
-    <t>524709757.747089</t>
-  </si>
-  <si>
-    <t>840414860.243777</t>
+    <t>1318815398.64866</t>
   </si>
   <si>
     <t>299682885.643054</t>
   </si>
   <si>
-    <t>357510939.283413</t>
+    <t>344981475.18578</t>
   </si>
   <si>
     <t>213236937.472261</t>
@@ -107,7 +124,7 @@
     <t>32559335.243204</t>
   </si>
   <si>
-    <t>273521945.895126</t>
+    <t>263935991.943963</t>
   </si>
   <si>
     <t>1146089826.14159</t>
@@ -116,7 +133,7 @@
     <t>519613847.853833</t>
   </si>
   <si>
-    <t>203092233.643624</t>
+    <t>195974583.436417</t>
   </si>
   <si>
     <t>108050810.930079</t>
@@ -125,20 +142,28 @@
     <t>325107038.699428</t>
   </si>
   <si>
-    <t>852586229.005688</t>
+    <t>822706157.076434</t>
   </si>
   <si>
     <t>3095363711.45341</t>
+  </si>
+  <si>
+    <t>1173031.55080178</t>
+  </si>
+  <si>
+    <t>267632.438733496</t>
+  </si>
+  <si>
+    <t>50868.4603818338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,7 +175,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -168,19 +193,331 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -208,104 +545,239 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>170620137.036686</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>525852084.01727098</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
+      <c r="C7">
+        <f ca="1">(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>4380521759.0843334</v>
+      </c>
+      <c r="D7">
+        <f ca="1">D2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>0.69182847282459203</v>
+      </c>
+      <c r="E7">
+        <f ca="1">E2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>5.4076568413486228E-4</v>
+      </c>
+      <c r="F7">
+        <f ca="1">F2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>3.8949729374783651E-2</v>
+      </c>
+      <c r="G7">
+        <f ca="1">G2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>6.8412600627213216E-2</v>
+      </c>
+      <c r="H7">
+        <f ca="1">H2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>7.4327527709872453E-3</v>
+      </c>
+      <c r="I7">
+        <f ca="1">I2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>0.11861916831625295</v>
+      </c>
+      <c r="J7">
+        <f ca="1">J2/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>7.4216510402036126E-2</v>
+      </c>
+      <c r="K7">
+        <f ca="1">(G2+H2+I2+J2)/(D2+E2+F2+G2+H2+I2+J2)</f>
+        <v>0.26868103211648958</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
+      <c r="C8">
+        <f ca="1">(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>10510472468.817032</v>
+      </c>
+      <c r="D8">
+        <f ca="1">D3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>0.79450402958606137</v>
+      </c>
+      <c r="E8">
+        <f ca="1">E3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>6.0981538629170987E-4</v>
+      </c>
+      <c r="F8">
+        <f ca="1">F3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>5.00312507908083E-2</v>
+      </c>
+      <c r="G8">
+        <f ca="1">G3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>3.282264200865255E-2</v>
+      </c>
+      <c r="H8">
+        <f ca="1">H3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>2.5111715265609687E-2</v>
+      </c>
+      <c r="I8">
+        <f ca="1">I3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>1.8645649281499352E-2</v>
+      </c>
+      <c r="J8">
+        <f ca="1">J3/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>7.8274897681077385E-2</v>
+      </c>
+      <c r="K8">
+        <f ca="1">(G3+H3+I3+J3)/(D3+E3+F3+G3+H3+I3+J3)</f>
+        <v>0.15485490423683895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <f>(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>8550214921.50984</v>
+      </c>
+      <c r="D9">
+        <f>D4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>0.30997627391096683</v>
+      </c>
+      <c r="E9">
+        <f>E4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>2.139650818629863E-3</v>
+      </c>
+      <c r="F9">
+        <f>F4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>0.15424353782393307</v>
+      </c>
+      <c r="G9">
+        <f>G4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>2.4939365785510169E-2</v>
+      </c>
+      <c r="H9">
+        <f>H4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>0.13404222427887319</v>
+      </c>
+      <c r="I9">
+        <f>I4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>1.2637204084572747E-2</v>
+      </c>
+      <c r="J9">
+        <f>J4/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>0.36202174329751413</v>
+      </c>
+      <c r="K9">
+        <f>(G4+H4+I4+J4)/(D4+E4+F4+G4+H4+I4+J4)</f>
+        <v>0.53364053744647022</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>